--- a/Workspaces/SiteData/trend_locations.xlsx
+++ b/Workspaces/SiteData/trend_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="988" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="988"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="189">
   <si>
     <t>Location</t>
   </si>
@@ -512,15 +512,9 @@
     <t>Zion</t>
   </si>
   <si>
-    <t>[0.75 1.5 0.5 0.5]</t>
-  </si>
-  <si>
     <t>*Box size is given in degrees upwind, downwind then perpendicular</t>
   </si>
   <si>
-    <t>[0.75 1.0 0.5 0.5]</t>
-  </si>
-  <si>
     <t>Center may be off</t>
   </si>
   <si>
@@ -536,15 +530,6 @@
     <t>[1 2 0.5 0.5]</t>
   </si>
   <si>
-    <t>[2 4 1 1]</t>
-  </si>
-  <si>
-    <t>[1 2 0.75 0.75]</t>
-  </si>
-  <si>
-    <t>[1 1.5 0.75 0.75]</t>
-  </si>
-  <si>
     <t>May need to be a little larger, no clear point source to enclose</t>
   </si>
   <si>
@@ -563,9 +548,6 @@
     <t>Point isn't very prominent</t>
   </si>
   <si>
-    <t>[1.5 2 1 1]</t>
-  </si>
-  <si>
     <t>Not sure if secondary sources need to be exluded or not</t>
   </si>
   <si>
@@ -578,9 +560,6 @@
     <t>Can't tell, need to use detail reject</t>
   </si>
   <si>
-    <t>[2 4 2 2]</t>
-  </si>
-  <si>
     <t>The center may be off, there's high NO2 columns in weird places</t>
   </si>
   <si>
@@ -593,16 +572,25 @@
     <t>May need to be bigger, may be tricked by the large colorbar range</t>
   </si>
   <si>
-    <t>[1 2 1.5 1.5]</t>
-  </si>
-  <si>
-    <t>[0.5 1.5 0.5 0.5]</t>
-  </si>
-  <si>
     <t>May need adjusted, center may be off</t>
   </si>
   <si>
     <t>BoxSize</t>
+  </si>
+  <si>
+    <t>Default box size for cities is [1 2 1 1]</t>
+  </si>
+  <si>
+    <t>[1 1.5 1 1]</t>
+  </si>
+  <si>
+    <t>[1 1 1 1]</t>
+  </si>
+  <si>
+    <t>Default box size for power plants in [0.5 1 0.5 0.5]</t>
+  </si>
+  <si>
+    <t>[0.5 1 0.25 0.25]</t>
   </si>
 </sst>
 </file>
@@ -650,8 +638,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -660,11 +658,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -994,13 +1002,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1019,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1038,9 +1049,6 @@
       <c r="E2">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1058,9 +1066,6 @@
       <c r="E3">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -1078,11 +1083,8 @@
       <c r="E4">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>166</v>
-      </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1101,9 +1103,6 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -1122,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1141,9 +1140,6 @@
       <c r="E7">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1161,9 +1157,6 @@
       <c r="E8">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1182,7 +1175,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1201,9 +1194,6 @@
       <c r="E10">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -1221,9 +1211,6 @@
       <c r="E11">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -1241,9 +1228,6 @@
       <c r="E12">
         <v>30</v>
       </c>
-      <c r="F12" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -1261,9 +1245,6 @@
       <c r="E13">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -1281,9 +1262,6 @@
       <c r="E14">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -1301,9 +1279,6 @@
       <c r="E15">
         <v>30</v>
       </c>
-      <c r="F15" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -1322,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1341,9 +1316,6 @@
       <c r="E17">
         <v>25</v>
       </c>
-      <c r="F17" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -1361,9 +1333,6 @@
       <c r="E18">
         <v>30</v>
       </c>
-      <c r="F18" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -1382,7 +1351,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1401,9 +1370,6 @@
       <c r="E20">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -1421,9 +1387,6 @@
       <c r="E21">
         <v>70</v>
       </c>
-      <c r="F21" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -1442,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1461,9 +1424,6 @@
       <c r="E23">
         <v>20</v>
       </c>
-      <c r="F23" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -1481,9 +1441,6 @@
       <c r="E24">
         <v>30</v>
       </c>
-      <c r="F24" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1501,9 +1458,6 @@
       <c r="E25">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
@@ -1521,9 +1475,6 @@
       <c r="E26">
         <v>30</v>
       </c>
-      <c r="F26" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -1541,9 +1492,6 @@
       <c r="E27">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
@@ -1561,11 +1509,8 @@
       <c r="E28">
         <v>70</v>
       </c>
-      <c r="F28" t="s">
-        <v>167</v>
-      </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1584,9 +1529,6 @@
       <c r="E29">
         <v>25</v>
       </c>
-      <c r="F29" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
@@ -1605,7 +1547,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1628,7 +1570,7 @@
         <v>167</v>
       </c>
       <c r="G31" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1647,9 +1589,6 @@
       <c r="E32">
         <v>40</v>
       </c>
-      <c r="F32" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
@@ -1667,9 +1606,6 @@
       <c r="E33">
         <v>25</v>
       </c>
-      <c r="F33" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
@@ -1687,9 +1623,6 @@
       <c r="E34">
         <v>30</v>
       </c>
-      <c r="F34" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
@@ -1707,9 +1640,6 @@
       <c r="E35">
         <v>20</v>
       </c>
-      <c r="F35" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
@@ -1728,10 +1658,10 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1751,10 +1681,10 @@
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1774,7 +1704,7 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1794,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1813,11 +1743,8 @@
       <c r="E40">
         <v>25</v>
       </c>
-      <c r="F40" t="s">
-        <v>167</v>
-      </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1836,11 +1763,8 @@
       <c r="E41">
         <v>40</v>
       </c>
-      <c r="F41" t="s">
-        <v>167</v>
-      </c>
       <c r="G41" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1860,7 +1784,7 @@
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1879,9 +1803,6 @@
       <c r="E43">
         <v>30</v>
       </c>
-      <c r="F43" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
@@ -1900,7 +1821,7 @@
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1919,9 +1840,6 @@
       <c r="E45">
         <v>40</v>
       </c>
-      <c r="F45" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
@@ -1939,9 +1857,6 @@
       <c r="E46">
         <v>20</v>
       </c>
-      <c r="F46" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
@@ -1959,11 +1874,8 @@
       <c r="E47">
         <v>25</v>
       </c>
-      <c r="F47" t="s">
-        <v>167</v>
-      </c>
       <c r="G47" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1983,7 +1895,17 @@
         <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2003,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2031,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2050,11 +1972,8 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>179</v>
-      </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2073,11 +1992,8 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>166</v>
-      </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2097,10 +2013,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2119,11 +2035,8 @@
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>166</v>
-      </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2142,11 +2055,8 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>166</v>
-      </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2165,11 +2075,8 @@
       <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>162</v>
-      </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2188,11 +2095,8 @@
       <c r="E8">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2212,7 +2116,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2231,11 +2135,8 @@
       <c r="E10">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
-        <v>172</v>
-      </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2255,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2274,9 +2175,6 @@
       <c r="E12">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -2294,9 +2192,6 @@
       <c r="E13">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -2314,9 +2209,6 @@
       <c r="E14">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -2335,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2354,11 +2246,8 @@
       <c r="E16">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
-        <v>170</v>
-      </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2377,11 +2266,8 @@
       <c r="E17">
         <v>20</v>
       </c>
-      <c r="F17" t="s">
-        <v>167</v>
-      </c>
       <c r="G17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2400,9 +2286,6 @@
       <c r="E18">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -2420,11 +2303,8 @@
       <c r="E19">
         <v>20</v>
       </c>
-      <c r="F19" t="s">
-        <v>167</v>
-      </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2443,9 +2323,6 @@
       <c r="E20">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -2464,10 +2341,10 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2487,7 +2364,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2507,10 +2384,10 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2529,18 +2406,20 @@
       <c r="E24">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2557,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2580,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Workspaces/SiteData/trend_locations.xlsx
+++ b/Workspaces/SiteData/trend_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="988" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="229">
   <si>
     <t>Location</t>
   </si>
@@ -551,9 +551,6 @@
     <t>Not sure if secondary sources need to be exluded or not</t>
   </si>
   <si>
-    <t>Assumed - can't tell due to missing data</t>
-  </si>
-  <si>
     <t>[0.75 1.5 0.75 0.75]</t>
   </si>
   <si>
@@ -591,13 +588,136 @@
   </si>
   <si>
     <t>[0.5 1 0.25 0.25]</t>
+  </si>
+  <si>
+    <t>WindRejects</t>
+  </si>
+  <si>
+    <t>NE, SE</t>
+  </si>
+  <si>
+    <t>SE, E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SE, S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S, SE</t>
+  </si>
+  <si>
+    <t>NW, W, SW, S</t>
+  </si>
+  <si>
+    <t>NW, NE, SE</t>
+  </si>
+  <si>
+    <t>N, S, SE</t>
+  </si>
+  <si>
+    <t>NW, N</t>
+  </si>
+  <si>
+    <t>W, NW</t>
+  </si>
+  <si>
+    <t>SE, N</t>
+  </si>
+  <si>
+    <t>N, NW, W, SW, S</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>W, SW</t>
+  </si>
+  <si>
+    <t>W, S</t>
+  </si>
+  <si>
+    <t>W, SW, NE</t>
+  </si>
+  <si>
+    <t>S, SW</t>
+  </si>
+  <si>
+    <t>W, NW, N</t>
+  </si>
+  <si>
+    <t>S, SW, W, NW</t>
+  </si>
+  <si>
+    <t>N, S, SW</t>
+  </si>
+  <si>
+    <t>N, E, S</t>
+  </si>
+  <si>
+    <t>SW, W, NW, N, NE</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N, NE, E, SE, S, SW, W, NW</t>
+  </si>
+  <si>
+    <t>Might be outside the available domain</t>
+  </si>
+  <si>
+    <t>SW, S</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>W, E, NE</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>N, NE</t>
+  </si>
+  <si>
+    <t>SW, S, SE</t>
+  </si>
+  <si>
+    <t>NW, N, NE</t>
+  </si>
+  <si>
+    <t>** Wind rejects must be a comma separate list of sectors (N, NW, W, SW, S, SE, E, NE) or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    angles specified as downwind direction CCW from east given as a range, e.g. [-90, -80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If the first value in a numerical range is &lt; the second, values within the range are excluded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If the first value in a numerical range is &gt; the second, values outside the range are excluded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    This handles the sign change at 180 deg, so e.g. [170, -170] excludes +/- 10 deg around 180 deg.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -620,6 +740,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -638,7 +766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -654,11 +782,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -666,6 +811,10 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -673,6 +822,10 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1002,18 +1155,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A56" sqref="A54:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,10 +1184,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1049,8 +1206,11 @@
       <c r="E2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1066,8 +1226,11 @@
       <c r="E3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1083,11 +1246,12 @@
       <c r="E4">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="1"/>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1103,8 +1267,11 @@
       <c r="E5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1121,10 +1288,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1140,8 +1310,9 @@
       <c r="E7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1157,8 +1328,11 @@
       <c r="E8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1175,10 +1349,13 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1194,8 +1371,9 @@
       <c r="E10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1211,8 +1389,11 @@
       <c r="E11">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1228,8 +1409,9 @@
       <c r="E12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1245,8 +1427,11 @@
       <c r="E13">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1262,8 +1447,11 @@
       <c r="E14">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1279,8 +1467,11 @@
       <c r="E15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1297,10 +1488,11 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>175</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1316,8 +1508,11 @@
       <c r="E17">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1333,8 +1528,11 @@
       <c r="E18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1351,10 +1549,13 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>175</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1370,8 +1571,9 @@
       <c r="E20">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1387,8 +1589,9 @@
       <c r="E21">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1407,8 +1610,11 @@
       <c r="F22" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1424,8 +1630,11 @@
       <c r="E23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1441,8 +1650,9 @@
       <c r="E24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1458,8 +1668,11 @@
       <c r="E25">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1475,8 +1688,11 @@
       <c r="E26">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1492,8 +1708,11 @@
       <c r="E27">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1509,11 +1728,14 @@
       <c r="E28">
         <v>70</v>
       </c>
-      <c r="G28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1529,8 +1751,11 @@
       <c r="E29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1549,8 +1774,9 @@
       <c r="F30" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1569,11 +1795,14 @@
       <c r="F31" t="s">
         <v>167</v>
       </c>
-      <c r="G31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1589,8 +1818,11 @@
       <c r="E32">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="G32" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1606,8 +1838,11 @@
       <c r="E33">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="G33" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1623,8 +1858,11 @@
       <c r="E34">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="G34" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1640,8 +1878,11 @@
       <c r="E35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="G35" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1660,11 +1901,12 @@
       <c r="F36" t="s">
         <v>164</v>
       </c>
-      <c r="H36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G36" s="2"/>
+      <c r="I36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1683,11 +1925,14 @@
       <c r="F37" t="s">
         <v>164</v>
       </c>
-      <c r="G37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="G37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -1704,10 +1949,13 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1726,8 +1974,11 @@
       <c r="F39" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1743,11 +1994,12 @@
       <c r="E40">
         <v>25</v>
       </c>
-      <c r="G40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="G40" s="1"/>
+      <c r="H40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1763,11 +2015,12 @@
       <c r="E41">
         <v>40</v>
       </c>
-      <c r="G41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="G41" s="1"/>
+      <c r="H41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -1784,10 +2037,13 @@
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -1803,8 +2059,11 @@
       <c r="E43">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="G43" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -1821,10 +2080,13 @@
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -1840,8 +2102,11 @@
       <c r="E45">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="G45" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -1857,8 +2122,11 @@
       <c r="E46">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="G46" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -1874,11 +2142,14 @@
       <c r="E47">
         <v>25</v>
       </c>
-      <c r="G47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="G47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H47" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1895,7 +2166,10 @@
         <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -1905,7 +2179,32 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1925,18 +2224,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A30" sqref="A30:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1953,10 +2253,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1972,11 +2275,12 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -1992,11 +2296,12 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2015,11 +2320,14 @@
       <c r="F4" t="s">
         <v>165</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2035,11 +2343,12 @@
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2055,11 +2364,12 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -2075,11 +2385,12 @@
       <c r="E7">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2095,11 +2406,14 @@
       <c r="E8">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -2118,8 +2432,11 @@
       <c r="F9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2135,11 +2452,14 @@
       <c r="E10">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -2156,10 +2476,13 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>175</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -2175,8 +2498,11 @@
       <c r="E12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -2192,8 +2518,11 @@
       <c r="E13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -2209,8 +2538,11 @@
       <c r="E14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -2229,8 +2561,11 @@
       <c r="F15" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -2246,11 +2581,14 @@
       <c r="E16">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -2266,11 +2604,12 @@
       <c r="E17">
         <v>20</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -2286,8 +2625,11 @@
       <c r="E18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -2303,11 +2645,12 @@
       <c r="E19">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -2323,8 +2666,9 @@
       <c r="E20">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -2341,13 +2685,16 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -2366,8 +2713,11 @@
       <c r="F22" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -2384,13 +2734,16 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -2406,15 +2759,43 @@
       <c r="E24">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G24" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2434,15 +2815,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2459,10 +2840,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -2479,7 +2863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -2496,7 +2880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -2513,7 +2897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -2530,7 +2914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -2547,7 +2931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -2564,7 +2948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -2581,7 +2965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -2598,7 +2982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -2615,7 +2999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -2632,7 +3016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -2649,7 +3033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -2666,7 +3050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -2683,7 +3067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -2700,7 +3084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>161</v>
       </c>

--- a/Workspaces/SiteData/trend_locations.xlsx
+++ b/Workspaces/SiteData/trend_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="988" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="988"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
@@ -1157,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A56" sqref="A54:A56"/>
     </sheetView>
   </sheetViews>
@@ -2817,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/Workspaces/SiteData/trend_locations.xlsx
+++ b/Workspaces/SiteData/trend_locations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="220">
   <si>
     <t>Location</t>
   </si>
@@ -311,12 +311,6 @@
     <t>Tucson</t>
   </si>
   <si>
-    <t>Vancouver, BC</t>
-  </si>
-  <si>
-    <t>Vancouver</t>
-  </si>
-  <si>
     <t>Washington, DC</t>
   </si>
   <si>
@@ -437,12 +431,6 @@
     <t>Leland Olds</t>
   </si>
   <si>
-    <t>Marshall, NC</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
     <t>Navajo Generating Station, AZ</t>
   </si>
   <si>
@@ -554,24 +542,6 @@
     <t>[0.75 1.5 0.75 0.75]</t>
   </si>
   <si>
-    <t>Can't tell, need to use detail reject</t>
-  </si>
-  <si>
-    <t>The center may be off, there's high NO2 columns in weird places</t>
-  </si>
-  <si>
-    <t>Kind of ambiguous, there's high columns that may be adjacent cities</t>
-  </si>
-  <si>
-    <t>Center seems off</t>
-  </si>
-  <si>
-    <t>May need to be bigger, may be tricked by the large colorbar range</t>
-  </si>
-  <si>
-    <t>May need adjusted, center may be off</t>
-  </si>
-  <si>
     <t>BoxSize</t>
   </si>
   <si>
@@ -593,21 +563,12 @@
     <t>WindRejects</t>
   </si>
   <si>
-    <t>NE, SE</t>
-  </si>
-  <si>
     <t>SE, E</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>SE, S</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -617,24 +578,9 @@
     <t>NW, W, SW, S</t>
   </si>
   <si>
-    <t>NW, NE, SE</t>
-  </si>
-  <si>
-    <t>N, S, SE</t>
-  </si>
-  <si>
-    <t>NW, N</t>
-  </si>
-  <si>
     <t>W, NW</t>
   </si>
   <si>
-    <t>SE, N</t>
-  </si>
-  <si>
-    <t>N, NW, W, SW, S</t>
-  </si>
-  <si>
     <t>NW</t>
   </si>
   <si>
@@ -644,48 +590,15 @@
     <t>W, S</t>
   </si>
   <si>
-    <t>W, SW, NE</t>
-  </si>
-  <si>
     <t>S, SW</t>
   </si>
   <si>
-    <t>W, NW, N</t>
-  </si>
-  <si>
-    <t>S, SW, W, NW</t>
-  </si>
-  <si>
-    <t>N, S, SW</t>
-  </si>
-  <si>
-    <t>N, E, S</t>
-  </si>
-  <si>
-    <t>SW, W, NW, N, NE</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>N, NE, E, SE, S, SW, W, NW</t>
-  </si>
-  <si>
-    <t>Might be outside the available domain</t>
-  </si>
-  <si>
-    <t>SW, S</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
-    <t>W, E, NE</t>
-  </si>
-  <si>
     <t>SW</t>
   </si>
   <si>
@@ -711,6 +624,66 @@
   </si>
   <si>
     <t xml:space="preserve">    This handles the sign change at 180 deg, so e.g. [170, -170] excludes +/- 10 deg around 180 deg.</t>
+  </si>
+  <si>
+    <t>Baltimore, MD</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Cheyenne, WY</t>
+  </si>
+  <si>
+    <t>Cheyenne</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>[0.5 1 1 1]</t>
+  </si>
+  <si>
+    <t>[0.75 1 0.75 0.75]</t>
+  </si>
+  <si>
+    <t>[1 1 0.5 0.5]</t>
+  </si>
+  <si>
+    <t>S, SW, W</t>
+  </si>
+  <si>
+    <t>NW, SE</t>
+  </si>
+  <si>
+    <t>NE, W</t>
+  </si>
+  <si>
+    <t>E, SE, S</t>
+  </si>
+  <si>
+    <t>NW, W</t>
+  </si>
+  <si>
+    <t>S, SE, NW</t>
+  </si>
+  <si>
+    <t>E, SE, SW</t>
+  </si>
+  <si>
+    <t>W, NW, N, NE, E</t>
+  </si>
+  <si>
+    <t>NW, N, NE, SE</t>
+  </si>
+  <si>
+    <t>SE, NW</t>
+  </si>
+  <si>
+    <t>NE, SW</t>
   </si>
 </sst>
 </file>
@@ -766,8 +739,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -803,7 +778,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -815,6 +790,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -826,6 +802,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1155,19 +1132,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A54:A56"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1184,13 +1163,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1206,11 +1185,14 @@
       <c r="E2">
         <v>30</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1227,984 +1209,1002 @@
         <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4">
+        <v>30.26</v>
+      </c>
+      <c r="D4">
+        <v>-97.74</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>35.299999999999997</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-119</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>25</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="I4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D6">
+        <v>-76.2</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>42.45</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>-71</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="G7" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>35.25</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>-80.849999999999994</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="F8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9">
+        <v>41.1</v>
+      </c>
+      <c r="D9">
+        <v>-104.8</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>41.8</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>-87.7</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>60</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>39.1</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>-84.55</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>25</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="F11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>41.45</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <v>-81.67</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>-83.1</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>32.85</v>
-      </c>
-      <c r="D11">
-        <v>-96.95</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>39.75</v>
-      </c>
-      <c r="D12">
-        <v>-105</v>
       </c>
       <c r="E12">
         <v>30</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="F12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>42.35</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>-83.1</v>
       </c>
       <c r="E13">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>36.700000000000003</v>
+        <v>32.85</v>
       </c>
       <c r="D14">
-        <v>-119.75</v>
+        <v>-96.95</v>
       </c>
       <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>29.8</v>
+        <v>39.75</v>
       </c>
       <c r="D15">
-        <v>-95.25</v>
+        <v>-105</v>
       </c>
       <c r="E15">
         <v>30</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>39.799999999999997</v>
+        <v>42.35</v>
       </c>
       <c r="D16">
-        <v>-86.15</v>
+        <v>-83.1</v>
       </c>
       <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>30.45</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="D17">
-        <v>-81.599999999999994</v>
+        <v>-119.75</v>
       </c>
       <c r="E17">
         <v>25</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G17" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>39.15</v>
+        <v>29.8</v>
       </c>
       <c r="D18">
-        <v>-94.55</v>
+        <v>-95.25</v>
       </c>
       <c r="E18">
         <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>35.950000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D19">
-        <v>-84</v>
+        <v>-86.15</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>36.200000000000003</v>
+        <v>30.45</v>
       </c>
       <c r="D20">
-        <v>-115.2</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="E20">
         <v>25</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>39.15</v>
+      </c>
+      <c r="D21">
+        <v>-94.55</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="D22">
+        <v>-84</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D23">
+        <v>-115.2</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <v>34</v>
       </c>
-      <c r="D21">
+      <c r="D24">
         <v>-117.9</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>70</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>35.1</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <v>-90.1</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>26.05</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <v>-80.3</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>20</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>44.95</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>-93.25</v>
-      </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25">
-        <v>45.6</v>
-      </c>
-      <c r="D25">
-        <v>-73.7</v>
-      </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="D26">
-        <v>-86.6</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27">
-        <v>30.05</v>
-      </c>
-      <c r="D27">
-        <v>-90.3</v>
       </c>
       <c r="E27">
         <v>30</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>40.85</v>
+        <v>45.6</v>
       </c>
       <c r="D28">
         <v>-73.7</v>
       </c>
       <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D29">
+        <v>-86.6</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>30.05</v>
+      </c>
+      <c r="D30">
+        <v>-90.3</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>40.85</v>
+      </c>
+      <c r="D31">
+        <v>-73.7</v>
+      </c>
+      <c r="E31">
         <v>70</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
+      <c r="G31" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="C29">
+      <c r="C32">
         <v>41.3</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <v>-96.05</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <v>25</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="F32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C30">
+      <c r="C33">
         <v>28.5</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>-81.3</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>20</v>
       </c>
-      <c r="F30" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C31">
+      <c r="C34">
         <v>40</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>-75.2</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>50</v>
       </c>
-      <c r="F31" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
+      <c r="F34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>33.6</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>-112</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>40</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>40.4</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>-79.95</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>25</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+      <c r="G36" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>45.45</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>-122.55</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>30</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="C35">
+      <c r="C38">
         <v>39.549999999999997</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <v>-119.7</v>
-      </c>
-      <c r="E35">
-        <v>20</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36">
-        <v>37.4</v>
-      </c>
-      <c r="D36">
-        <v>-77.3</v>
-      </c>
-      <c r="E36">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="I36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37">
-        <v>38.65</v>
-      </c>
-      <c r="D37">
-        <v>-121.4</v>
-      </c>
-      <c r="E37">
-        <v>25</v>
-      </c>
-      <c r="F37" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="D38">
-        <v>-111.95</v>
       </c>
       <c r="E38">
         <v>20</v>
       </c>
-      <c r="F38" t="s">
-        <v>175</v>
+      <c r="F38" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C39">
-        <v>29.55</v>
+        <v>37.4</v>
       </c>
       <c r="D39">
-        <v>-98.45</v>
+        <v>-77.3</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C40">
-        <v>32.799999999999997</v>
+        <v>38.65</v>
       </c>
       <c r="D40">
-        <v>-117</v>
+        <v>-121.4</v>
       </c>
       <c r="E40">
         <v>25</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D41">
+        <v>-111.95</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>29.55</v>
+      </c>
+      <c r="D42">
+        <v>-98.45</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D43">
+        <v>-117</v>
+      </c>
+      <c r="E43">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="C41">
+      <c r="C44">
         <v>37.6</v>
       </c>
-      <c r="D41">
+      <c r="D44">
         <v>-122</v>
       </c>
-      <c r="E41">
+      <c r="E44">
         <v>40</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
+      <c r="G44" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="C42">
+      <c r="C45">
         <v>47.35</v>
       </c>
-      <c r="D42">
+      <c r="D45">
         <v>-122.25</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>50</v>
       </c>
-      <c r="F42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+      <c r="F45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="C43">
+      <c r="C46">
         <v>38.65</v>
       </c>
-      <c r="D43">
+      <c r="D46">
         <v>-90.35</v>
       </c>
-      <c r="E43">
+      <c r="E46">
         <v>30</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>90</v>
       </c>
-      <c r="C44">
+      <c r="C47">
         <v>27.9</v>
       </c>
-      <c r="D44">
+      <c r="D47">
         <v>-82.4</v>
       </c>
-      <c r="E44">
+      <c r="E47">
         <v>30</v>
       </c>
-      <c r="F44" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
+      <c r="F47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="C45">
+      <c r="C48">
         <v>43.7</v>
       </c>
-      <c r="D45">
+      <c r="D48">
         <v>-79.5</v>
       </c>
-      <c r="E45">
+      <c r="E48">
         <v>40</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49">
+        <v>32.25</v>
+      </c>
+      <c r="D49">
+        <v>-110.85</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50">
+        <v>38.9</v>
+      </c>
+      <c r="D50">
+        <v>-77</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46">
-        <v>32.25</v>
-      </c>
-      <c r="D46">
-        <v>-110.85</v>
-      </c>
-      <c r="E46">
-        <v>20</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47">
-        <v>49.25</v>
-      </c>
-      <c r="D47">
-        <v>-122.85</v>
-      </c>
-      <c r="E47">
-        <v>25</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48">
-        <v>39.15</v>
-      </c>
-      <c r="D48">
-        <v>-76.8</v>
-      </c>
-      <c r="E48">
-        <v>50</v>
-      </c>
-      <c r="F48" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>228</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2224,14 +2224,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A32"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
@@ -2253,18 +2254,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>40.4</v>
@@ -2275,17 +2276,19 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>34.950000000000003</v>
@@ -2296,17 +2299,19 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>45.9</v>
@@ -2318,21 +2323,19 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>217</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>40.1</v>
@@ -2343,17 +2346,19 @@
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>34.549999999999997</v>
@@ -2364,17 +2369,19 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>40.5</v>
@@ -2387,15 +2394,15 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>28.95</v>
@@ -2407,18 +2414,18 @@
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9">
         <v>36.75</v>
@@ -2430,18 +2437,16 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10">
         <v>40.549999999999997</v>
@@ -2453,18 +2458,18 @@
         <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>37.950000000000003</v>
@@ -2475,19 +2480,19 @@
       <c r="E11">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
-        <v>175</v>
+      <c r="F11" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>39.85</v>
@@ -2499,15 +2504,15 @@
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13">
         <v>39.25</v>
@@ -2518,16 +2523,14 @@
       <c r="E13">
         <v>20</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14">
         <v>39.549999999999997</v>
@@ -2538,16 +2541,14 @@
       <c r="E14">
         <v>20</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15">
         <v>41.75</v>
@@ -2558,19 +2559,17 @@
       <c r="E15">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="F15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16">
         <v>39.85</v>
@@ -2582,18 +2581,18 @@
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17">
         <v>36.049999999999997</v>
@@ -2604,17 +2603,19 @@
       <c r="E17">
         <v>20</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="H17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18">
         <v>37.200000000000003</v>
@@ -2626,15 +2627,15 @@
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>42.1</v>
@@ -2645,17 +2646,19 @@
       <c r="E19">
         <v>20</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="H19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>47.4</v>
@@ -2666,136 +2669,110 @@
       <c r="E20">
         <v>35</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21">
-        <v>35.6</v>
+        <v>36.9</v>
       </c>
       <c r="D21">
-        <v>-80.95</v>
+        <v>-111.35</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H21" t="s">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22">
-        <v>36.9</v>
+        <v>29.8</v>
       </c>
       <c r="D22">
-        <v>-111.35</v>
+        <v>-81.55</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="H22" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23">
-        <v>29.8</v>
+        <v>40.9</v>
       </c>
       <c r="D23">
-        <v>-81.55</v>
+        <v>-117</v>
       </c>
       <c r="E23">
         <v>20</v>
       </c>
-      <c r="F23" t="s">
-        <v>187</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24">
-        <v>40.9</v>
-      </c>
-      <c r="D24">
-        <v>-117</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2840,18 +2817,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2">
         <v>44.35</v>
@@ -2865,10 +2842,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>29.25</v>
@@ -2882,10 +2859,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4">
         <v>42.94</v>
@@ -2899,10 +2876,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C5">
         <v>36.24</v>
@@ -2916,10 +2893,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C6">
         <v>36.06</v>
@@ -2933,10 +2910,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7">
         <v>35.68</v>
@@ -2950,10 +2927,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C8">
         <v>34.51</v>
@@ -2967,10 +2944,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9">
         <v>48.1</v>
@@ -2984,10 +2961,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C10">
         <v>43.87</v>
@@ -3001,10 +2978,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C11">
         <v>35.07</v>
@@ -3018,10 +2995,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <v>33</v>
@@ -3035,10 +3012,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>38.53</v>
@@ -3052,10 +3029,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>44.6</v>
@@ -3069,10 +3046,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>37.83</v>
@@ -3086,10 +3063,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>37.299999999999997</v>

--- a/Workspaces/SiteData/trend_locations.xlsx
+++ b/Workspaces/SiteData/trend_locations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="222">
   <si>
     <t>Location</t>
   </si>
@@ -684,6 +684,12 @@
   </si>
   <si>
     <t>NE, SW</t>
+  </si>
+  <si>
+    <t>WRFWindRejects</t>
+  </si>
+  <si>
+    <t>E, SW, N</t>
   </si>
 </sst>
 </file>
@@ -739,8 +745,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,7 +786,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -791,6 +799,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -803,6 +812,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1132,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1146,7 +1156,7 @@
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1168,8 +1178,11 @@
       <c r="G1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1192,7 +1205,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -1232,7 +1245,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1253,7 +1266,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -1273,7 +1286,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +1306,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1327,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -1332,7 +1345,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1349,8 +1362,11 @@
         <v>60</v>
       </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1371,7 +1387,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1410,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1431,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1433,7 +1449,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1451,7 +1467,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2224,20 +2240,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="7" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2259,8 +2275,11 @@
       <c r="G1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2279,11 +2298,12 @@
       <c r="G2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -2302,11 +2322,12 @@
       <c r="G3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -2326,11 +2347,12 @@
         <v>161</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2349,11 +2371,12 @@
       <c r="G5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -2372,11 +2395,12 @@
       <c r="G6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -2393,11 +2417,12 @@
         <v>20</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -2416,11 +2441,12 @@
       <c r="G8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2440,8 +2466,9 @@
         <v>161</v>
       </c>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -2460,11 +2487,12 @@
       <c r="G10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -2486,8 +2514,9 @@
       <c r="G11" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -2506,8 +2535,9 @@
       <c r="G12" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -2524,8 +2554,9 @@
         <v>20</v>
       </c>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -2542,8 +2573,9 @@
         <v>20</v>
       </c>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -2563,8 +2595,9 @@
         <v>171</v>
       </c>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -2583,11 +2616,12 @@
       <c r="G16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -2606,11 +2640,12 @@
       <c r="G17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -2629,8 +2664,9 @@
       <c r="G18" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -2649,11 +2685,12 @@
       <c r="G19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -2672,8 +2709,9 @@
       <c r="G20" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -2693,8 +2731,9 @@
         <v>161</v>
       </c>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -2716,11 +2755,12 @@
       <c r="G22" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -2739,38 +2779,39 @@
       <c r="G23" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>199</v>
       </c>
@@ -2792,15 +2833,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2822,8 +2863,11 @@
       <c r="G1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -2840,7 +2884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -2857,7 +2901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -2874,7 +2918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2891,7 +2935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -2908,7 +2952,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -2925,7 +2969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -2942,7 +2986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -2959,7 +3003,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -2976,7 +3020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -2993,7 +3037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -3010,7 +3054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -3027,7 +3071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -3044,7 +3088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -3061,7 +3105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>157</v>
       </c>

--- a/Workspaces/SiteData/trend_locations.xlsx
+++ b/Workspaces/SiteData/trend_locations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="223">
   <si>
     <t>Location</t>
   </si>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t>E, SW, N</t>
+  </si>
+  <si>
+    <t>SW, NE</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1148,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1850,7 +1853,9 @@
       <c r="F34" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">

--- a/Workspaces/SiteData/trend_locations.xlsx
+++ b/Workspaces/SiteData/trend_locations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="245">
   <si>
     <t xml:space="preserve">Location</t>
   </si>
@@ -228,6 +228,9 @@
     <t xml:space="preserve">[0.75 1.5 0.75 0.75]</t>
   </si>
   <si>
+    <t xml:space="preserve">Marion, IN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jacksonville, FL</t>
   </si>
   <si>
@@ -318,12 +321,18 @@
     <t xml:space="preserve">Nashville</t>
   </si>
   <si>
+    <t xml:space="preserve">Davidson, TN</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Orleans, LA</t>
   </si>
   <si>
     <t xml:space="preserve">New Orleans</t>
   </si>
   <si>
+    <t xml:space="preserve">St. Charles, LA</t>
+  </si>
+  <si>
     <t xml:space="preserve">New York, NY</t>
   </si>
   <si>
@@ -478,6 +487,9 @@
   </si>
   <si>
     <t xml:space="preserve">NE, W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District of Colombia</t>
   </si>
   <si>
     <t xml:space="preserve">*Box size is given in degrees upwind, downwind then perpendicular</t>
@@ -859,21 +871,21 @@
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,13 +1327,19 @@
         <v>67</v>
       </c>
       <c r="G19" s="1"/>
+      <c r="I19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>18097</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>30.45</v>
@@ -1336,15 +1354,15 @@
         <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>39.15</v>
@@ -1356,15 +1374,15 @@
         <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>35.95</v>
@@ -1376,16 +1394,16 @@
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>36.2</v>
@@ -1400,10 +1418,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>34</v>
@@ -1416,21 +1434,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>6037</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>35.1</v>
@@ -1445,24 +1463,24 @@
         <v>13</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>47157</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>26.05</v>
@@ -1477,10 +1495,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>44.95</v>
@@ -1493,21 +1511,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>27053</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>45.6</v>
@@ -1520,15 +1538,15 @@
       </c>
       <c r="G28" s="1"/>
       <c r="K28" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>36.2</v>
@@ -1543,13 +1561,19 @@
         <v>23</v>
       </c>
       <c r="G29" s="1"/>
+      <c r="I29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>47037</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>30.05</v>
@@ -1561,15 +1585,21 @@
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>22089</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>40.85</v>
@@ -1581,24 +1611,24 @@
         <v>70</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>36061</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>41.3</v>
@@ -1614,21 +1644,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="I32" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>31055</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>28.5</v>
@@ -1646,10 +1676,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>40</v>
@@ -1661,18 +1691,18 @@
         <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>33.6</v>
@@ -1687,10 +1717,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>40.4</v>
@@ -1702,15 +1732,15 @@
         <v>25</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>45.45</v>
@@ -1725,10 +1755,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>39.55</v>
@@ -1748,10 +1778,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>37.4</v>
@@ -1769,10 +1799,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>38.65</v>
@@ -1787,15 +1817,15 @@
         <v>23</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>40.7</v>
@@ -1813,10 +1843,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>29.55</v>
@@ -1836,10 +1866,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>32.8</v>
@@ -1851,16 +1881,16 @@
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>37.6</v>
@@ -1877,10 +1907,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>47.35</v>
@@ -1892,16 +1922,16 @@
         <v>50</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>38.65</v>
@@ -1916,10 +1946,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>27.9</v>
@@ -1934,15 +1964,15 @@
         <v>67</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>43.7</v>
@@ -1954,15 +1984,15 @@
         <v>40</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>32.25</v>
@@ -1977,15 +2007,15 @@
         <v>13</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>38.9</v>
@@ -2000,42 +2030,48 @@
         <v>67</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>11001</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2062,10 +2098,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,10 +2141,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>40.4</v>
@@ -2127,15 +2163,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>34.95</v>
@@ -2147,22 +2183,22 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>45.9</v>
@@ -2174,7 +2210,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2182,15 +2218,15 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>40.1</v>
@@ -2202,22 +2238,22 @@
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>34.55</v>
@@ -2229,22 +2265,22 @@
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40.5</v>
@@ -2261,15 +2297,15 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>28.95</v>
@@ -2281,22 +2317,22 @@
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>36.75</v>
@@ -2308,7 +2344,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2318,10 +2354,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>40.55</v>
@@ -2333,22 +2369,22 @@
         <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37.95</v>
@@ -2363,7 +2399,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2372,10 +2408,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>39.85</v>
@@ -2387,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2396,10 +2432,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>39.25</v>
@@ -2418,10 +2454,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>39.55</v>
@@ -2440,10 +2476,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>41.75</v>
@@ -2465,10 +2501,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39.85</v>
@@ -2480,22 +2516,22 @@
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>36.05</v>
@@ -2514,15 +2550,15 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>37.2</v>
@@ -2543,10 +2579,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>42.1</v>
@@ -2565,15 +2601,15 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>47.4</v>
@@ -2585,7 +2621,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2594,10 +2630,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>36.9</v>
@@ -2609,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2619,10 +2655,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>29.8</v>
@@ -2634,25 +2670,25 @@
         <v>20</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>40.9</v>
@@ -2664,7 +2700,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2673,37 +2709,37 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2730,7 +2766,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,10 +2806,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>44.35</v>
@@ -2787,10 +2823,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>29.25</v>
@@ -2804,10 +2840,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>42.94</v>
@@ -2821,10 +2857,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>36.24</v>
@@ -2838,10 +2874,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>36.06</v>
@@ -2855,10 +2891,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>35.68</v>
@@ -2872,10 +2908,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>34.51</v>
@@ -2889,10 +2925,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>48.1</v>
@@ -2906,10 +2942,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>43.87</v>
@@ -2923,10 +2959,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>35.07</v>
@@ -2940,10 +2976,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>33</v>
@@ -2957,10 +2993,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38.53</v>
@@ -2974,10 +3010,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>44.6</v>
@@ -2991,10 +3027,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37.83</v>
@@ -3008,10 +3044,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37.3</v>
